--- a/theatres_consolidated.xlsx
+++ b/theatres_consolidated.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$42</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -948,9 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -984,361 +985,357 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1437</v>
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
-        <v>1124</v>
+        <v>1813</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
-        <v>740</v>
+        <v>623</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2">
-        <v>1275</v>
+        <v>1747</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1437</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1016</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>1078</v>
+        <v>1275</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
-        <v>780</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
-        <v>1186</v>
+        <v>1707</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1044</v>
+        <v>89</v>
+      </c>
+      <c r="D10" s="3">
+        <v>947</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3">
-        <v>623</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1073</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
+      <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1082</v>
+        <v>74</v>
+      </c>
+      <c r="D12" s="3">
+        <v>650</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1058</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>740</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2">
-        <v>1108</v>
+        <v>1055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2">
-        <v>1933</v>
+        <v>1004</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>597</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1044</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1079</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>597</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1933</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2">
-        <v>1443</v>
+        <v>1492</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3">
-        <v>804</v>
+        <v>57</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1582</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="2">
-        <v>1091</v>
+        <v>1710</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2">
-        <v>1492</v>
+        <v>1182</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
@@ -1346,101 +1343,102 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3">
-        <v>922</v>
+        <v>65</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1316</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2">
-        <v>1813</v>
+        <v>1740</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2">
-        <v>1645</v>
+        <v>1368</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>1582</v>
+        <v>1124</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>1710</v>
+        <v>1016</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
-        <v>1009</v>
+        <v>1078</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>5</v>
@@ -1448,118 +1446,121 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1182</v>
+        <v>16</v>
+      </c>
+      <c r="D29" s="3">
+        <v>780</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>1316</v>
+        <v>1186</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
+      <c r="A31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2">
-        <v>1747</v>
+        <v>1082</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
-        <v>1740</v>
+        <v>1058</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
-        <v>1368</v>
+        <v>1079</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3">
-        <v>650</v>
+        <v>43</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1443</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1449</v>
+        <v>45</v>
+      </c>
+      <c r="D35" s="3">
+        <v>804</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -1567,67 +1568,67 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D36" s="2">
-        <v>1707</v>
+        <v>1091</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1055</v>
+        <v>51</v>
+      </c>
+      <c r="D37" s="3">
+        <v>922</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2">
-        <v>1004</v>
+        <v>1645</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2">
-        <v>1761</v>
+        <v>1009</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -1635,36 +1636,36 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>1073</v>
+        <v>1449</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="3">
-        <v>947</v>
+        <v>84</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1761</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1685,89 +1686,94 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F42">
+    <sortState ref="A2:F42">
+      <sortCondition ref="E1:E42"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="B1:B41">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="E8" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
-    <hyperlink ref="E9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="E10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="C12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="C13" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="C15" r:id="rId27"/>
-    <hyperlink ref="E15" r:id="rId28"/>
-    <hyperlink ref="C16" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="C17" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="C18" r:id="rId33"/>
-    <hyperlink ref="E18" r:id="rId34"/>
-    <hyperlink ref="C19" r:id="rId35"/>
-    <hyperlink ref="E19" r:id="rId36"/>
-    <hyperlink ref="C20" r:id="rId37"/>
-    <hyperlink ref="E20" r:id="rId38"/>
-    <hyperlink ref="E21" r:id="rId39"/>
-    <hyperlink ref="C22" r:id="rId40"/>
-    <hyperlink ref="E22" r:id="rId41"/>
-    <hyperlink ref="C23" r:id="rId42"/>
-    <hyperlink ref="E23" r:id="rId43"/>
-    <hyperlink ref="C24" r:id="rId44"/>
-    <hyperlink ref="E24" r:id="rId45"/>
-    <hyperlink ref="C25" r:id="rId46"/>
-    <hyperlink ref="E25" r:id="rId47"/>
-    <hyperlink ref="C26" r:id="rId48"/>
-    <hyperlink ref="E26" r:id="rId49"/>
-    <hyperlink ref="C27" r:id="rId50"/>
-    <hyperlink ref="E27" r:id="rId51"/>
-    <hyperlink ref="C28" r:id="rId52"/>
-    <hyperlink ref="E28" r:id="rId53"/>
-    <hyperlink ref="C29" r:id="rId54"/>
-    <hyperlink ref="E29" r:id="rId55"/>
-    <hyperlink ref="C30" r:id="rId56"/>
-    <hyperlink ref="E30" r:id="rId57"/>
-    <hyperlink ref="C31" r:id="rId58"/>
-    <hyperlink ref="E31" r:id="rId59"/>
-    <hyperlink ref="C32" r:id="rId60"/>
-    <hyperlink ref="E32" r:id="rId61"/>
-    <hyperlink ref="C33" r:id="rId62"/>
-    <hyperlink ref="E33" r:id="rId63"/>
-    <hyperlink ref="C34" r:id="rId64"/>
-    <hyperlink ref="E34" r:id="rId65"/>
-    <hyperlink ref="C35" r:id="rId66"/>
-    <hyperlink ref="E35" r:id="rId67"/>
-    <hyperlink ref="C36" r:id="rId68"/>
-    <hyperlink ref="E36" r:id="rId69"/>
-    <hyperlink ref="C37" r:id="rId70"/>
-    <hyperlink ref="E37" r:id="rId71"/>
-    <hyperlink ref="C38" r:id="rId72"/>
-    <hyperlink ref="E38" r:id="rId73"/>
-    <hyperlink ref="C39" r:id="rId74"/>
-    <hyperlink ref="E39" r:id="rId75"/>
-    <hyperlink ref="C40" r:id="rId76"/>
-    <hyperlink ref="E40" r:id="rId77"/>
-    <hyperlink ref="C41" r:id="rId78"/>
-    <hyperlink ref="E41" r:id="rId79"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="E26" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId8"/>
+    <hyperlink ref="C27" r:id="rId9"/>
+    <hyperlink ref="E27" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="C30" r:id="rId15"/>
+    <hyperlink ref="E30" r:id="rId16"/>
+    <hyperlink ref="C17" r:id="rId17"/>
+    <hyperlink ref="E17" r:id="rId18"/>
+    <hyperlink ref="C4" r:id="rId19"/>
+    <hyperlink ref="E4" r:id="rId20"/>
+    <hyperlink ref="C31" r:id="rId21"/>
+    <hyperlink ref="E31" r:id="rId22"/>
+    <hyperlink ref="C32" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="C8" r:id="rId25"/>
+    <hyperlink ref="E8" r:id="rId26"/>
+    <hyperlink ref="C18" r:id="rId27"/>
+    <hyperlink ref="E18" r:id="rId28"/>
+    <hyperlink ref="C33" r:id="rId29"/>
+    <hyperlink ref="E33" r:id="rId30"/>
+    <hyperlink ref="C16" r:id="rId31"/>
+    <hyperlink ref="E16" r:id="rId32"/>
+    <hyperlink ref="C2" r:id="rId33"/>
+    <hyperlink ref="E2" r:id="rId34"/>
+    <hyperlink ref="C34" r:id="rId35"/>
+    <hyperlink ref="E34" r:id="rId36"/>
+    <hyperlink ref="C35" r:id="rId37"/>
+    <hyperlink ref="E35" r:id="rId38"/>
+    <hyperlink ref="E36" r:id="rId39"/>
+    <hyperlink ref="C19" r:id="rId40"/>
+    <hyperlink ref="E19" r:id="rId41"/>
+    <hyperlink ref="C37" r:id="rId42"/>
+    <hyperlink ref="E37" r:id="rId43"/>
+    <hyperlink ref="C3" r:id="rId44"/>
+    <hyperlink ref="E3" r:id="rId45"/>
+    <hyperlink ref="C38" r:id="rId46"/>
+    <hyperlink ref="E38" r:id="rId47"/>
+    <hyperlink ref="C20" r:id="rId48"/>
+    <hyperlink ref="E20" r:id="rId49"/>
+    <hyperlink ref="C21" r:id="rId50"/>
+    <hyperlink ref="E21" r:id="rId51"/>
+    <hyperlink ref="C39" r:id="rId52"/>
+    <hyperlink ref="E39" r:id="rId53"/>
+    <hyperlink ref="C22" r:id="rId54"/>
+    <hyperlink ref="E22" r:id="rId55"/>
+    <hyperlink ref="C23" r:id="rId56"/>
+    <hyperlink ref="E23" r:id="rId57"/>
+    <hyperlink ref="C5" r:id="rId58"/>
+    <hyperlink ref="E5" r:id="rId59"/>
+    <hyperlink ref="C24" r:id="rId60"/>
+    <hyperlink ref="E24" r:id="rId61"/>
+    <hyperlink ref="C25" r:id="rId62"/>
+    <hyperlink ref="E25" r:id="rId63"/>
+    <hyperlink ref="C12" r:id="rId64"/>
+    <hyperlink ref="E12" r:id="rId65"/>
+    <hyperlink ref="C40" r:id="rId66"/>
+    <hyperlink ref="E40" r:id="rId67"/>
+    <hyperlink ref="C9" r:id="rId68"/>
+    <hyperlink ref="E9" r:id="rId69"/>
+    <hyperlink ref="C14" r:id="rId70"/>
+    <hyperlink ref="E14" r:id="rId71"/>
+    <hyperlink ref="C15" r:id="rId72"/>
+    <hyperlink ref="E15" r:id="rId73"/>
+    <hyperlink ref="C41" r:id="rId74"/>
+    <hyperlink ref="E41" r:id="rId75"/>
+    <hyperlink ref="C11" r:id="rId76"/>
+    <hyperlink ref="E11" r:id="rId77"/>
+    <hyperlink ref="C10" r:id="rId78"/>
+    <hyperlink ref="E10" r:id="rId79"/>
     <hyperlink ref="C42" r:id="rId80"/>
     <hyperlink ref="E42" r:id="rId81"/>
   </hyperlinks>
